--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H2">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I2">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J2">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.111678</v>
+        <v>0.2577576666666667</v>
       </c>
       <c r="N2">
-        <v>0.335034</v>
+        <v>0.7732730000000001</v>
       </c>
       <c r="O2">
-        <v>0.01499007198665366</v>
+        <v>0.03524815007985697</v>
       </c>
       <c r="P2">
-        <v>0.01499007198665366</v>
+        <v>0.03524815007985697</v>
       </c>
       <c r="Q2">
-        <v>10.756908271788</v>
+        <v>14.05703361752178</v>
       </c>
       <c r="R2">
-        <v>96.812174446092</v>
+        <v>126.513302557696</v>
       </c>
       <c r="S2">
-        <v>0.00571095451740475</v>
+        <v>0.01068508423829851</v>
       </c>
       <c r="T2">
-        <v>0.005710954517404749</v>
+        <v>0.01068508423829851</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H3">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I3">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J3">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.728126</v>
       </c>
       <c r="O3">
-        <v>0.3010294270888212</v>
+        <v>0.3066885757089511</v>
       </c>
       <c r="P3">
-        <v>0.3010294270888212</v>
+        <v>0.3066885757089511</v>
       </c>
       <c r="Q3">
-        <v>216.0193718339987</v>
+        <v>122.3080249341725</v>
       </c>
       <c r="R3">
-        <v>1944.174346505988</v>
+        <v>1100.772224407552</v>
       </c>
       <c r="S3">
-        <v>0.1146869319930764</v>
+        <v>0.09296922700764976</v>
       </c>
       <c r="T3">
-        <v>0.1146869319930763</v>
+        <v>0.09296922700764977</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H4">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I4">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J4">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.075634</v>
+        <v>4.789377333333333</v>
       </c>
       <c r="N4">
-        <v>15.226902</v>
+        <v>14.368132</v>
       </c>
       <c r="O4">
-        <v>0.6812811747873964</v>
+        <v>0.6549434327891901</v>
       </c>
       <c r="P4">
-        <v>0.6812811747873964</v>
+        <v>0.6549434327891902</v>
       </c>
       <c r="Q4">
-        <v>488.888853302964</v>
+        <v>261.1927670369849</v>
       </c>
       <c r="R4">
-        <v>4399.999679726677</v>
+        <v>2350.734903332864</v>
       </c>
       <c r="S4">
-        <v>0.2595561786653875</v>
+        <v>0.1985388094075344</v>
       </c>
       <c r="T4">
-        <v>0.2595561786653874</v>
+        <v>0.1985388094075344</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H5">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I5">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J5">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02011033333333333</v>
+        <v>0.02281433333333334</v>
       </c>
       <c r="N5">
-        <v>0.060331</v>
+        <v>0.068443</v>
       </c>
       <c r="O5">
-        <v>0.002699326137128774</v>
+        <v>0.003119841422001868</v>
       </c>
       <c r="P5">
-        <v>0.002699326137128774</v>
+        <v>0.003119841422001868</v>
       </c>
       <c r="Q5">
-        <v>1.937042308975333</v>
+        <v>1.244199075726222</v>
       </c>
       <c r="R5">
-        <v>17.433380780778</v>
+        <v>11.197791681536</v>
       </c>
       <c r="S5">
-        <v>0.001028395915010256</v>
+        <v>0.0009457451902780317</v>
       </c>
       <c r="T5">
-        <v>0.001028395915010255</v>
+        <v>0.0009457451902780319</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>55.394026</v>
       </c>
       <c r="I6">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J6">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.111678</v>
+        <v>0.2577576666666667</v>
       </c>
       <c r="N6">
-        <v>0.335034</v>
+        <v>0.7732730000000001</v>
       </c>
       <c r="O6">
-        <v>0.01499007198665366</v>
+        <v>0.03524815007985697</v>
       </c>
       <c r="P6">
-        <v>0.01499007198665366</v>
+        <v>0.03524815007985697</v>
       </c>
       <c r="Q6">
-        <v>2.062098011876</v>
+        <v>4.759411629677556</v>
       </c>
       <c r="R6">
-        <v>18.558882106884</v>
+        <v>42.834704667098</v>
       </c>
       <c r="S6">
-        <v>0.00109478928877183</v>
+        <v>0.003617741521543563</v>
       </c>
       <c r="T6">
-        <v>0.001094789288771829</v>
+        <v>0.003617741521543563</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>55.394026</v>
       </c>
       <c r="I7">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J7">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>6.728126</v>
       </c>
       <c r="O7">
-        <v>0.3010294270888212</v>
+        <v>0.3066885757089511</v>
       </c>
       <c r="P7">
-        <v>0.3010294270888212</v>
+        <v>0.3066885757089511</v>
       </c>
       <c r="Q7">
         <v>41.41088739725289</v>
@@ -883,10 +883,10 @@
         <v>372.6979865752759</v>
       </c>
       <c r="S7">
-        <v>0.02198547096207327</v>
+        <v>0.03147739645943515</v>
       </c>
       <c r="T7">
-        <v>0.02198547096207326</v>
+        <v>0.03147739645943516</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>55.394026</v>
       </c>
       <c r="I8">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J8">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.075634</v>
+        <v>4.789377333333333</v>
       </c>
       <c r="N8">
-        <v>15.226902</v>
+        <v>14.368132</v>
       </c>
       <c r="O8">
-        <v>0.6812811747873964</v>
+        <v>0.6549434327891901</v>
       </c>
       <c r="P8">
-        <v>0.6812811747873964</v>
+        <v>0.6549434327891902</v>
       </c>
       <c r="Q8">
-        <v>93.719933920828</v>
+        <v>88.43429750882578</v>
       </c>
       <c r="R8">
-        <v>843.479405287452</v>
+        <v>795.9086775794319</v>
       </c>
       <c r="S8">
-        <v>0.04975688798981104</v>
+        <v>0.06722100438450423</v>
       </c>
       <c r="T8">
-        <v>0.04975688798981102</v>
+        <v>0.06722100438450425</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>55.394026</v>
       </c>
       <c r="I9">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J9">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02011033333333333</v>
+        <v>0.02281433333333334</v>
       </c>
       <c r="N9">
-        <v>0.060331</v>
+        <v>0.068443</v>
       </c>
       <c r="O9">
-        <v>0.002699326137128774</v>
+        <v>0.003119841422001868</v>
       </c>
       <c r="P9">
-        <v>0.002699326137128774</v>
+        <v>0.003119841422001868</v>
       </c>
       <c r="Q9">
-        <v>0.371330775845111</v>
+        <v>0.4212592579464445</v>
       </c>
       <c r="R9">
-        <v>3.341976982606</v>
+        <v>3.791333321518</v>
       </c>
       <c r="S9">
-        <v>0.0001971433722574224</v>
+        <v>0.0003202091408325469</v>
       </c>
       <c r="T9">
-        <v>0.0001971433722574223</v>
+        <v>0.000320209140832547</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H10">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I10">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J10">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.111678</v>
+        <v>0.2577576666666667</v>
       </c>
       <c r="N10">
-        <v>0.335034</v>
+        <v>0.7732730000000001</v>
       </c>
       <c r="O10">
-        <v>0.01499007198665366</v>
+        <v>0.03524815007985697</v>
       </c>
       <c r="P10">
-        <v>0.01499007198665366</v>
+        <v>0.03524815007985697</v>
       </c>
       <c r="Q10">
-        <v>1.689373543074</v>
+        <v>3.236497969507445</v>
       </c>
       <c r="R10">
-        <v>15.204361887666</v>
+        <v>29.128481725567</v>
       </c>
       <c r="S10">
-        <v>0.0008969059904234789</v>
+        <v>0.002460138773386947</v>
       </c>
       <c r="T10">
-        <v>0.0008969059904234789</v>
+        <v>0.002460138773386948</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H11">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I11">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J11">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>6.728126</v>
       </c>
       <c r="O11">
-        <v>0.3010294270888212</v>
+        <v>0.3066885757089511</v>
       </c>
       <c r="P11">
-        <v>0.3010294270888212</v>
+        <v>0.3066885757089511</v>
       </c>
       <c r="Q11">
-        <v>33.92586441635267</v>
+        <v>28.16025664621711</v>
       </c>
       <c r="R11">
-        <v>305.332779747174</v>
+        <v>253.442309815954</v>
       </c>
       <c r="S11">
-        <v>0.01801159438661139</v>
+        <v>0.02140527814217336</v>
       </c>
       <c r="T11">
-        <v>0.01801159438661139</v>
+        <v>0.02140527814217337</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H12">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I12">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J12">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.075634</v>
+        <v>4.789377333333333</v>
       </c>
       <c r="N12">
-        <v>15.226902</v>
+        <v>14.368132</v>
       </c>
       <c r="O12">
-        <v>0.6812811747873964</v>
+        <v>0.6549434327891901</v>
       </c>
       <c r="P12">
-        <v>0.6812811747873964</v>
+        <v>0.6549434327891902</v>
       </c>
       <c r="Q12">
-        <v>76.78004435902201</v>
+        <v>60.13714437671422</v>
       </c>
       <c r="R12">
-        <v>691.0203992311981</v>
+        <v>541.234299390428</v>
       </c>
       <c r="S12">
-        <v>0.04076332437720127</v>
+        <v>0.04571166798057313</v>
       </c>
       <c r="T12">
-        <v>0.04076332437720127</v>
+        <v>0.04571166798057315</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H13">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I13">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J13">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02011033333333333</v>
+        <v>0.02281433333333334</v>
       </c>
       <c r="N13">
-        <v>0.060331</v>
+        <v>0.068443</v>
       </c>
       <c r="O13">
-        <v>0.002699326137128774</v>
+        <v>0.003119841422001868</v>
       </c>
       <c r="P13">
-        <v>0.002699326137128774</v>
+        <v>0.003119841422001868</v>
       </c>
       <c r="Q13">
-        <v>0.3042126925243334</v>
+        <v>0.2864649748885555</v>
       </c>
       <c r="R13">
-        <v>2.737914232719</v>
+        <v>2.578184773997</v>
       </c>
       <c r="S13">
-        <v>0.0001615096835194007</v>
+        <v>0.0002177488132482613</v>
       </c>
       <c r="T13">
-        <v>0.0001615096835194007</v>
+        <v>0.0002177488132482614</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H14">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I14">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J14">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.111678</v>
+        <v>0.2577576666666667</v>
       </c>
       <c r="N14">
-        <v>0.335034</v>
+        <v>0.7732730000000001</v>
       </c>
       <c r="O14">
-        <v>0.01499007198665366</v>
+        <v>0.03524815007985697</v>
       </c>
       <c r="P14">
-        <v>0.01499007198665366</v>
+        <v>0.03524815007985697</v>
       </c>
       <c r="Q14">
-        <v>13.726274968098</v>
+        <v>24.31865475835078</v>
       </c>
       <c r="R14">
-        <v>123.536474712882</v>
+        <v>218.867892825157</v>
       </c>
       <c r="S14">
-        <v>0.007287422190053601</v>
+        <v>0.01848518554662795</v>
       </c>
       <c r="T14">
-        <v>0.0072874221900536</v>
+        <v>0.01848518554662796</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H15">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I15">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J15">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>6.728126</v>
       </c>
       <c r="O15">
-        <v>0.3010294270888212</v>
+        <v>0.3066885757089511</v>
       </c>
       <c r="P15">
-        <v>0.3010294270888212</v>
+        <v>0.3066885757089511</v>
       </c>
       <c r="Q15">
-        <v>275.649956410422</v>
+        <v>211.5927665451704</v>
       </c>
       <c r="R15">
-        <v>2480.849607693798</v>
+        <v>1904.334898906534</v>
       </c>
       <c r="S15">
-        <v>0.1463454297470602</v>
+        <v>0.1608366740996927</v>
       </c>
       <c r="T15">
-        <v>0.1463454297470602</v>
+        <v>0.1608366740996928</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H16">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I16">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J16">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.075634</v>
+        <v>4.789377333333333</v>
       </c>
       <c r="N16">
-        <v>15.226902</v>
+        <v>14.368132</v>
       </c>
       <c r="O16">
-        <v>0.6812811747873964</v>
+        <v>0.6549434327891901</v>
       </c>
       <c r="P16">
-        <v>0.6812811747873964</v>
+        <v>0.6549434327891902</v>
       </c>
       <c r="Q16">
-        <v>623.8430838788939</v>
+        <v>451.8632379902209</v>
       </c>
       <c r="R16">
-        <v>5614.587754910046</v>
+        <v>4066.769141911988</v>
       </c>
       <c r="S16">
-        <v>0.3312047837549967</v>
+        <v>0.3434719510165782</v>
       </c>
       <c r="T16">
-        <v>0.3312047837549967</v>
+        <v>0.3434719510165783</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H17">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I17">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J17">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.02011033333333333</v>
+        <v>0.02281433333333334</v>
       </c>
       <c r="N17">
-        <v>0.060331</v>
+        <v>0.068443</v>
       </c>
       <c r="O17">
-        <v>0.002699326137128774</v>
+        <v>0.003119841422001868</v>
       </c>
       <c r="P17">
-        <v>0.002699326137128774</v>
+        <v>0.003119841422001868</v>
       </c>
       <c r="Q17">
-        <v>2.471748822806999</v>
+        <v>2.152463214965223</v>
       </c>
       <c r="R17">
-        <v>22.245739405263</v>
+        <v>19.372168934687</v>
       </c>
       <c r="S17">
-        <v>0.001312277166341696</v>
+        <v>0.001636138277643027</v>
       </c>
       <c r="T17">
-        <v>0.001312277166341696</v>
+        <v>0.001636138277643028</v>
       </c>
     </row>
   </sheetData>
